--- a/doc/序列模型变更记录.xlsx
+++ b/doc/序列模型变更记录.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1.0.1.0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>模型版本号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,23 +28,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.0.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否向下兼容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.0.1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.0.1.1</t>
+  </si>
+  <si>
+    <t>1.0.0.1</t>
+  </si>
+  <si>
+    <t>将ISequenceStep中的BreakIfFailed标记为Obosolete，使用AssertFailedAction属性配置断言异常后的行为；InvokeErrorAction属性配置调用异常后的行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增StepType用以表征step的行为，包括Execution/ConditionStatement/ConditionBlock/Timer/MultiThread/Batch等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.0.0.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否向下兼容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 将ISequenceStep中的BreakIfFailed标记为Obosolete，使用AssertFailedAction属性配置断言异常后的行为；InvokeErrorAction属性配置调用异常后的行为</t>
+    <t>FailedInfo中新增ErrorCode的记录，该数据默认为long类型，从异常的属性中获取，如果不存在，返回0。属性的名称定义在配置文件EngineCore节点下的ErrorCodeProperty，多个定义分别用逗号分隔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -487,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -495,16 +517,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/doc/序列模型变更记录.xlsx
+++ b/doc/序列模型变更记录.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7302139E-DB19-4ED4-BEFD-D01DCB059F20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.0.1.0" sheetId="1" r:id="rId1"/>
@@ -14,11 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>模型版本号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>基础版本号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,16 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.0.1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0.1.1</t>
-  </si>
-  <si>
-    <t>1.0.0.1</t>
-  </si>
-  <si>
     <t>将ISequenceStep中的BreakIfFailed标记为Obosolete，使用AssertFailedAction属性配置断言异常后的行为；InvokeErrorAction属性配置调用异常后的行为</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,22 +45,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.0.1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.0.0.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FailedInfo中新增ErrorCode的记录，该数据默认为long类型，从异常的属性中获取，如果不存在，返回0。属性的名称定义在配置文件EngineCore节点下的ErrorCodeProperty，多个定义分别用逗号分隔</t>
+    <t>FailedInfo中新增ErrorCode的记录，该数据默认为long类型，从HResult中获取，如果不存在，返回0。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RetryCounter新增配置PassTimes和PassCountVariable，用于配置判定通过的成功次数以及统计成功次数的变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function新增SetInstanceFields和SetStaticFields方法，用于配置实例和静态字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,74 +116,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -201,14 +128,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -276,6 +203,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -311,6 +255,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -486,75 +447,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.25" customWidth="1"/>
-    <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="155.875" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="155.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
